--- a/workbooks/registration_details.xlsx
+++ b/workbooks/registration_details.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView zoomScale="110" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
@@ -606,6 +606,38 @@
         </is>
       </c>
       <c r="F5" t="inlineStr">
+        <is>
+          <t>student</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>R-23-0140</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>r230140@famt.ac.in</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Vaidehi Santosh Bhuwad</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>saamia.kb@gmail.com</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>$2b$12$3k654BgA1aTf6RyZ2ZZYTeV9x6kUM2lDTLfH/Clk7QCL0K0b9erae</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>student</t>
         </is>

--- a/workbooks/registration_details.xlsx
+++ b/workbooks/registration_details.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView zoomScale="110" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
@@ -638,6 +638,38 @@
         </is>
       </c>
       <c r="F6" t="inlineStr">
+        <is>
+          <t>student</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>R-22-0124</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>r220124@famt.ac.in</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Mansi Surendra Agre</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>abcd@gmail.com</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>$2b$12$NH5vRBM2YWaelWJPnz.K4.gj1i5TQo3qXdUURWAKRekdm9uGxumSO</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>student</t>
         </is>

--- a/workbooks/registration_details.xlsx
+++ b/workbooks/registration_details.xlsx
@@ -686,7 +686,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
@@ -885,6 +885,33 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>samikb@gmail.com</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ABCD</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>$2b$12$Mbu0Y4wabzc0HchfxKPOIukURdO71QwM2sHmt4U.esjDlNzJkRyi2</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>teacher</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>DSGT, DLCOA</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/workbooks/registration_details.xlsx
+++ b/workbooks/registration_details.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
@@ -686,6 +686,38 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>R-23-4000</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>r234000@famt.ac.in</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Safwana</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>saamia.kb@gmail.com</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>$2b$12$oD.l70Rn1.Ff1R.xmhi8mOp.fyuFj36bi4AoOAmpygy1ma20mtf42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>student</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1"/>
@@ -700,7 +732,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView zoomScale="108" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
@@ -904,6 +936,33 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>teacher7@gmail.com</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bob</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>$2b$12$TEBCkQT3toyBHVe2INjQD.enVGJ8toymoePROI9fNWSVVEk5t3SQC</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>teacher</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>DLCOA, DLCOALAB</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
